--- a/Welfare/한국복지패널조사_2022년_17차_복지인식용_코드북.xlsx
+++ b/Welfare/한국복지패널조사_2022년_17차_복지인식용_코드북.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kihasa\Koweps\panel data(1~17)\2022년 17차 한국복지패널조사(koweps) 데이터 및 조사설계서(beta1)\(2022년 17차 한국복지패널조사) 조사설계서(beta1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e68c1237c8f9773/Welfare/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_FBDED817F5E9728EE7F1787CD91212685B30DF59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BDCE381-DAC7-4710-B0E0-4BF335CB04B6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코딩북" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">코딩북!$A$1:$F$93</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">코딩북!$A$1:$F$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">코딩북!$A$1:$F$91</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">코딩북!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -860,7 +874,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1366,14 +1380,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,203 +1405,200 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1612,9 +1623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1652,9 +1663,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1689,7 +1700,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1724,7 +1735,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1897,27 +1908,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="105" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39:A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="44.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.52734375" customWidth="1"/>
+    <col min="2" max="2" width="18.1171875" customWidth="1"/>
+    <col min="3" max="3" width="8.1171875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.41015625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="44.3515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1937,1425 +1948,1439 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="22" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="22" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="28" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="22" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="22" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="22" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="28" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="33" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="23" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="33" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="33" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="33" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="23" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="33" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="22" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="22" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="22" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="34" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:6" s="13" customFormat="1" ht="50.65" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="40" t="s">
+      <c r="B22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="40" t="s">
+      <c r="B23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="35" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="45" t="s">
+      <c r="B24" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="42" t="s">
+      <c r="D24" s="58"/>
+      <c r="E24" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="42" t="s">
+      <c r="B25" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="66" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="42" t="s">
+      <c r="B26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="49"/>
-    </row>
-    <row r="27" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
+      <c r="F26" s="67"/>
+    </row>
+    <row r="27" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="42" t="s">
+      <c r="B27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="1:6" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
+      <c r="F27" s="68"/>
+    </row>
+    <row r="28" spans="1:6" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="45" t="s">
+      <c r="B28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="36" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="42" t="s">
+      <c r="B29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="66" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="42" t="s">
+      <c r="B30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="49"/>
-    </row>
-    <row r="31" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A31" s="15" t="s">
+      <c r="F30" s="67"/>
+    </row>
+    <row r="31" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="42" t="s">
+      <c r="B31" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="49"/>
-    </row>
-    <row r="32" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A32" s="15" t="s">
+      <c r="F31" s="67"/>
+    </row>
+    <row r="32" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="42" t="s">
+      <c r="B32" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="49"/>
-    </row>
-    <row r="33" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A33" s="15" t="s">
+      <c r="F32" s="67"/>
+    </row>
+    <row r="33" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="42" t="s">
+      <c r="B33" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="49"/>
-    </row>
-    <row r="34" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A34" s="15" t="s">
+      <c r="F33" s="67"/>
+    </row>
+    <row r="34" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="42" t="s">
+      <c r="B34" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="49"/>
-    </row>
-    <row r="35" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A35" s="15" t="s">
+      <c r="F34" s="67"/>
+    </row>
+    <row r="35" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="42" t="s">
+      <c r="B35" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="61"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="49"/>
-    </row>
-    <row r="36" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A36" s="15" t="s">
+      <c r="F35" s="67"/>
+    </row>
+    <row r="36" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="42" t="s">
+      <c r="B36" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F36" s="49"/>
-    </row>
-    <row r="37" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="F36" s="67"/>
+    </row>
+    <row r="37" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="42" t="s">
+      <c r="B37" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="49"/>
-    </row>
-    <row r="38" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A38" s="15" t="s">
+      <c r="F37" s="67"/>
+    </row>
+    <row r="38" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="42" t="s">
+      <c r="B38" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="62"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="52"/>
-    </row>
-    <row r="39" spans="1:6" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A39" s="15" t="s">
+      <c r="F38" s="68"/>
+    </row>
+    <row r="39" spans="1:6" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="51" t="s">
         <v>153</v>
       </c>
       <c r="D39" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="25"/>
+      <c r="B40" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="52"/>
       <c r="D40" s="56"/>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="66" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="25"/>
+      <c r="B41" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="52"/>
       <c r="D41" s="56"/>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="49"/>
-    </row>
-    <row r="42" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A42" s="15" t="s">
+      <c r="F41" s="67"/>
+    </row>
+    <row r="42" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="25"/>
+      <c r="B42" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="52"/>
       <c r="D42" s="56"/>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="F42" s="49"/>
-    </row>
-    <row r="43" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A43" s="15" t="s">
+      <c r="F42" s="67"/>
+    </row>
+    <row r="43" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="25"/>
+      <c r="B43" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="52"/>
       <c r="D43" s="56"/>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="F43" s="49"/>
-    </row>
-    <row r="44" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A44" s="15" t="s">
+      <c r="F43" s="67"/>
+    </row>
+    <row r="44" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="25"/>
+      <c r="B44" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="52"/>
       <c r="D44" s="56"/>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="49"/>
-    </row>
-    <row r="45" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A45" s="15" t="s">
+      <c r="F44" s="67"/>
+    </row>
+    <row r="45" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="25"/>
+      <c r="B45" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="52"/>
       <c r="D45" s="56"/>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="49"/>
-    </row>
-    <row r="46" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A46" s="15" t="s">
+      <c r="F45" s="67"/>
+    </row>
+    <row r="46" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="25"/>
+      <c r="B46" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="52"/>
       <c r="D46" s="56"/>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="49"/>
-    </row>
-    <row r="47" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A47" s="15" t="s">
+      <c r="F46" s="67"/>
+    </row>
+    <row r="47" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="25"/>
+      <c r="B47" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="52"/>
       <c r="D47" s="56"/>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="49"/>
-    </row>
-    <row r="48" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A48" s="15" t="s">
+      <c r="F47" s="67"/>
+    </row>
+    <row r="48" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="25"/>
+      <c r="B48" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="52"/>
       <c r="D48" s="56"/>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="F48" s="49"/>
-    </row>
-    <row r="49" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A49" s="15" t="s">
+      <c r="F48" s="67"/>
+    </row>
+    <row r="49" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="25"/>
+      <c r="B49" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="52"/>
       <c r="D49" s="56"/>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="49"/>
-    </row>
-    <row r="50" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A50" s="15" t="s">
+      <c r="F49" s="67"/>
+    </row>
+    <row r="50" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="25"/>
+      <c r="B50" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="52"/>
       <c r="D50" s="56"/>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="F50" s="49"/>
-    </row>
-    <row r="51" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A51" s="15" t="s">
+      <c r="F50" s="67"/>
+    </row>
+    <row r="51" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="25"/>
+      <c r="B51" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="52"/>
       <c r="D51" s="56"/>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="F51" s="49"/>
-    </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A52" s="15" t="s">
+      <c r="F51" s="67"/>
+    </row>
+    <row r="52" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="25"/>
+      <c r="B52" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="52"/>
       <c r="D52" s="56"/>
-      <c r="E52" s="42" t="s">
+      <c r="E52" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F52" s="49"/>
-    </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A53" s="15" t="s">
+      <c r="F52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="25"/>
+      <c r="B53" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="52"/>
       <c r="D53" s="56"/>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="F53" s="49"/>
-    </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A54" s="15" t="s">
+      <c r="F53" s="67"/>
+    </row>
+    <row r="54" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="25"/>
+      <c r="B54" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="52"/>
       <c r="D54" s="56"/>
-      <c r="E54" s="42" t="s">
+      <c r="E54" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="F54" s="49"/>
-    </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A55" s="15" t="s">
+      <c r="F54" s="67"/>
+    </row>
+    <row r="55" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="25"/>
+      <c r="B55" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="52"/>
       <c r="D55" s="56"/>
-      <c r="E55" s="57" t="s">
+      <c r="E55" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="52"/>
-    </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A56" s="15" t="s">
+      <c r="F55" s="68"/>
+    </row>
+    <row r="56" spans="1:6" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="40" t="s">
+      <c r="B56" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A57" s="15" t="s">
+    <row r="57" spans="1:6" s="13" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="40" t="s">
+      <c r="B57" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="42" t="s">
+      <c r="D57" s="69"/>
+      <c r="E57" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A58" s="15" t="s">
+    <row r="58" spans="1:6" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="25" t="s">
+      <c r="B58" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="E58" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A59" s="15" t="s">
+    <row r="59" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="42" t="s">
+      <c r="B59" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="52"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="F59" s="48" t="s">
+      <c r="F59" s="66" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A60" s="15" t="s">
+    <row r="60" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="42" t="s">
+      <c r="B60" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="52"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="F60" s="49"/>
-    </row>
-    <row r="61" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A61" s="15" t="s">
+      <c r="F60" s="67"/>
+    </row>
+    <row r="61" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="42" t="s">
+      <c r="B61" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F61" s="49"/>
-    </row>
-    <row r="62" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A62" s="15" t="s">
+      <c r="F61" s="67"/>
+    </row>
+    <row r="62" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="42" t="s">
+      <c r="B62" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="52"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F62" s="49"/>
-    </row>
-    <row r="63" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A63" s="15" t="s">
+      <c r="F62" s="67"/>
+    </row>
+    <row r="63" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="42" t="s">
+      <c r="B63" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="52"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="49"/>
-    </row>
-    <row r="64" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A64" s="15" t="s">
+      <c r="F63" s="67"/>
+    </row>
+    <row r="64" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="42" t="s">
+      <c r="B64" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="52"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="F64" s="49"/>
-    </row>
-    <row r="65" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A65" s="15" t="s">
+      <c r="F64" s="67"/>
+    </row>
+    <row r="65" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="42" t="s">
+      <c r="B65" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="52"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="F65" s="49"/>
-    </row>
-    <row r="66" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A66" s="15" t="s">
+      <c r="F65" s="67"/>
+    </row>
+    <row r="66" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="22" t="s">
+      <c r="B66" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F66" s="49"/>
-    </row>
-    <row r="67" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A67" s="15" t="s">
+      <c r="F66" s="67"/>
+    </row>
+    <row r="67" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="22" t="s">
+      <c r="B67" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="52"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F67" s="52"/>
-    </row>
-    <row r="68" spans="1:6" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A68" s="15" t="s">
+      <c r="F67" s="68"/>
+    </row>
+    <row r="68" spans="1:6" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="20" t="s">
+      <c r="B68" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A69" s="15" t="s">
+    <row r="69" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="22" t="s">
+      <c r="B69" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="52"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="F69" s="48" t="s">
+      <c r="F69" s="66" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A70" s="15" t="s">
+    <row r="70" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="22" t="s">
+      <c r="B70" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="52"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="F70" s="49"/>
-    </row>
-    <row r="71" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A71" s="15" t="s">
+      <c r="F70" s="67"/>
+    </row>
+    <row r="71" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="22" t="s">
+      <c r="B71" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="52"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="F71" s="49"/>
-    </row>
-    <row r="72" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A72" s="15" t="s">
+      <c r="F71" s="67"/>
+    </row>
+    <row r="72" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="22" t="s">
+      <c r="B72" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="52"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="F72" s="49"/>
-    </row>
-    <row r="73" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A73" s="15" t="s">
+      <c r="F72" s="67"/>
+    </row>
+    <row r="73" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="22" t="s">
+      <c r="B73" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="52"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="F73" s="49"/>
-    </row>
-    <row r="74" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A74" s="15" t="s">
+      <c r="F73" s="67"/>
+    </row>
+    <row r="74" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="22" t="s">
+      <c r="B74" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="52"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="F74" s="49"/>
-    </row>
-    <row r="75" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A75" s="15" t="s">
+      <c r="F74" s="67"/>
+    </row>
+    <row r="75" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="22" t="s">
+      <c r="B75" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="52"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="49"/>
-    </row>
-    <row r="76" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A76" s="15" t="s">
+      <c r="F75" s="67"/>
+    </row>
+    <row r="76" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="22" t="s">
+      <c r="B76" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="52"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="F76" s="49"/>
-    </row>
-    <row r="77" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A77" s="15" t="s">
+      <c r="F76" s="67"/>
+    </row>
+    <row r="77" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="22" t="s">
+      <c r="B77" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="52"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="F77" s="49"/>
-    </row>
-    <row r="78" spans="1:6" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A78" s="15" t="s">
+      <c r="F77" s="67"/>
+    </row>
+    <row r="78" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="22" t="s">
+      <c r="B78" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="52"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="F78" s="52"/>
-    </row>
-    <row r="79" spans="1:6" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A79" s="15" t="s">
+      <c r="F78" s="68"/>
+    </row>
+    <row r="79" spans="1:6" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B79" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="59" t="s">
+      <c r="B79" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="F79" s="23" t="s">
+      <c r="F79" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A80" s="15" t="s">
+    <row r="80" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="22" t="s">
+      <c r="B80" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="64"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F80" s="48" t="s">
+      <c r="F80" s="66" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A81" s="15" t="s">
+    <row r="81" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="61"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="22" t="s">
+      <c r="B81" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="65"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F81" s="52"/>
-    </row>
-    <row r="82" spans="1:6" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="15" t="s">
+      <c r="F81" s="68"/>
+    </row>
+    <row r="82" spans="1:6" s="13" customFormat="1" ht="30.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="62" t="s">
+      <c r="B82" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="22" t="s">
+      <c r="D82" s="46"/>
+      <c r="E82" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="F82" s="23" t="s">
+      <c r="F82" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="15" t="s">
+    <row r="83" spans="1:6" s="13" customFormat="1" ht="30.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="62" t="s">
+      <c r="B83" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="22" t="s">
+      <c r="D83" s="46"/>
+      <c r="E83" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="F83" s="23" t="s">
+      <c r="F83" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.15">
-      <c r="A84" s="15" t="s">
+    <row r="84" spans="1:6" s="13" customFormat="1" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="25" t="s">
+      <c r="B84" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D84" s="30"/>
-      <c r="E84" s="22" t="s">
+      <c r="D84" s="46"/>
+      <c r="E84" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="F84" s="23" t="s">
+      <c r="F84" s="21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A85" s="15" t="s">
+    <row r="85" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A85" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="54" t="s">
+      <c r="B85" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="22" t="s">
+      <c r="C85" s="52"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="F85" s="23" t="s">
+      <c r="F85" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="14" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="15" t="s">
+    <row r="86" spans="1:6" s="13" customFormat="1" ht="50.65" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="62" t="s">
+      <c r="B86" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="22" t="s">
+      <c r="D86" s="46"/>
+      <c r="E86" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="F86" s="44" t="s">
+      <c r="F86" s="35" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="15" t="s">
+    <row r="87" spans="1:6" s="13" customFormat="1" ht="30.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="54" t="s">
+      <c r="B87" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="C87" s="63" t="s">
+      <c r="C87" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="22" t="s">
+      <c r="D87" s="46"/>
+      <c r="E87" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="F87" s="23" t="s">
+      <c r="F87" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A88" s="15" t="s">
+    <row r="88" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="64" t="s">
+      <c r="B88" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="65"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="66" t="s">
+      <c r="C88" s="71"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="F88" s="67" t="s">
+      <c r="F88" s="40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="15" t="s">
+    <row r="89" spans="1:6" s="13" customFormat="1" ht="30.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="54" t="s">
+      <c r="B89" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="C89" s="65"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="22" t="s">
+      <c r="C89" s="71"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="F89" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A90" s="16" t="s">
+    <row r="90" spans="1:6" s="13" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="64" t="s">
+      <c r="B90" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="68"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="66" t="s">
+      <c r="C90" s="72"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="F90" s="67" t="s">
+      <c r="F90" s="40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A91" s="15" t="s">
+    <row r="91" spans="1:6" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="33" t="s">
+      <c r="B91" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="D91" s="29" t="s">
+      <c r="D91" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="E91" s="66" t="s">
+      <c r="E91" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="F91" s="67" t="s">
+      <c r="F91" s="40" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A92" s="16" t="s">
+    <row r="92" spans="1:6" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="33" t="s">
+      <c r="B92" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="D92" s="30"/>
-      <c r="E92" s="66" t="s">
+      <c r="D92" s="46"/>
+      <c r="E92" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="F92" s="67" t="s">
+      <c r="F92" s="40" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="14" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
+    <row r="93" spans="1:6" s="13" customFormat="1" ht="20.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="70" t="s">
+      <c r="B93" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="D93" s="71"/>
-      <c r="E93" s="72" t="s">
+      <c r="D93" s="54"/>
+      <c r="E93" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="F93" s="73" t="s">
+      <c r="F93" s="44" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F93"/>
   <mergeCells count="27">
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C68:C78"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="C28:C38"/>
+    <mergeCell ref="D28:D38"/>
+    <mergeCell ref="F29:F38"/>
+    <mergeCell ref="F69:F78"/>
+    <mergeCell ref="F40:F55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C58:C67"/>
+    <mergeCell ref="D58:D67"/>
+    <mergeCell ref="F59:F67"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="C2:C20"/>
@@ -3368,21 +3393,6 @@
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="D79:D90"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="C28:C38"/>
-    <mergeCell ref="D28:D38"/>
-    <mergeCell ref="F29:F38"/>
-    <mergeCell ref="F69:F78"/>
-    <mergeCell ref="F40:F55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C58:C67"/>
-    <mergeCell ref="D58:D67"/>
-    <mergeCell ref="F59:F67"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C68:C78"/>
-    <mergeCell ref="D68:D78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.43307086614173229" bottom="0.35433070866141736" header="0.19685039370078741" footer="0.19685039370078741"/>
